--- a/document/Vocabulary.xlsx
+++ b/document/Vocabulary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Yao\Documents\GitHub\CSX_RProject_Summer_2018\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE35847F-AEE9-4FB6-BF4D-09502F383CFD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC7099D-F2A6-4A4F-A248-CDD9F0D7C103}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{FB7D835D-F382-4FB8-B293-6553F62C3CE3}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>原文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +188,121 @@
   </si>
   <si>
     <t>類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>維度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陣列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函數原文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>combine function</t>
+  </si>
+  <si>
+    <t>c( )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逗號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parentheses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>括號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matrices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩陣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因素向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data frames</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> square brackets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中括號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方括號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比較</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparison operators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比較運算子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,6 +340,12 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -247,7 +369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -263,11 +385,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF3A3A3A"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -350,12 +496,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{117BF495-3E9E-462D-90BC-6AA772D2DA63}" name="表格1" displayName="表格1" ref="A1:C19" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:C19" xr:uid="{03150B6E-5CEB-46EC-9653-3B038DD3366B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{117BF495-3E9E-462D-90BC-6AA772D2DA63}" name="表格1" displayName="表格1" ref="A1:C31" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A1:C31" xr:uid="{03150B6E-5CEB-46EC-9653-3B038DD3366B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{270AD1EE-9240-4505-A05C-448242051B3A}" name="原文" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{B49B5F7B-26AD-4D4F-9ABC-239D6B7BA2E3}" name="中文" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{A3DD170B-18C1-4430-B7E8-10FC796DF9D1}" name="備註" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{270AD1EE-9240-4505-A05C-448242051B3A}" name="原文" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B49B5F7B-26AD-4D4F-9ABC-239D6B7BA2E3}" name="中文" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A3DD170B-18C1-4430-B7E8-10FC796DF9D1}" name="備註" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6739C6CD-A6DA-4D70-B80B-ECDB25F220AE}" name="表格2" displayName="表格2" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{4F42B968-222B-43D7-A7B3-C2031F91DE1B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DA20F844-A727-47AE-A25C-848102C69C60}" name="函數原文" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{1C412A22-AB86-420E-9ED8-3FBE9D0F4DB4}" name="函數"/>
+    <tableColumn id="3" xr3:uid="{C69ACD7F-3C36-44DC-917A-825184A05F88}" name="備註"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -658,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB118205-DAC6-4511-A9A6-EB926D361A79}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -882,11 +1040,159 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9598E9-64B9-424F-80CC-4D3A0DD43AF8}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A35" sqref="A34:A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/document/Vocabulary.xlsx
+++ b/document/Vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Yao\Documents\GitHub\CSX_RProject_Summer_2018\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC7099D-F2A6-4A4F-A248-CDD9F0D7C103}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D1EA48-6160-4E51-925A-ECD5CC39417B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{FB7D835D-F382-4FB8-B293-6553F62C3CE3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>原文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +303,38 @@
   </si>
   <si>
     <t>比較運算子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>columns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordered factors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>順序型因素向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比較級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data frame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,8 +528,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{117BF495-3E9E-462D-90BC-6AA772D2DA63}" name="表格1" displayName="表格1" ref="A1:C31" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A1:C31" xr:uid="{03150B6E-5CEB-46EC-9653-3B038DD3366B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{117BF495-3E9E-462D-90BC-6AA772D2DA63}" name="表格1" displayName="表格1" ref="A1:C35" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A1:C35" xr:uid="{03150B6E-5CEB-46EC-9653-3B038DD3366B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{270AD1EE-9240-4505-A05C-448242051B3A}" name="原文" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{B49B5F7B-26AD-4D4F-9ABC-239D6B7BA2E3}" name="中文" dataDxfId="2"/>
@@ -816,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB118205-DAC6-4511-A9A6-EB926D361A79}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1150,6 +1182,44 @@
         <v>68</v>
       </c>
       <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/document/Vocabulary.xlsx
+++ b/document/Vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Yao\Documents\GitHub\CSX_RProject_Summer_2018\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D1EA48-6160-4E51-925A-ECD5CC39417B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC7099D-F2A6-4A4F-A248-CDD9F0D7C103}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{FB7D835D-F382-4FB8-B293-6553F62C3CE3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>原文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,38 +303,6 @@
   </si>
   <si>
     <t>比較運算子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>columns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ordered factors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>順序型因素向量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比較級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data frame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,8 +496,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{117BF495-3E9E-462D-90BC-6AA772D2DA63}" name="表格1" displayName="表格1" ref="A1:C35" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A1:C35" xr:uid="{03150B6E-5CEB-46EC-9653-3B038DD3366B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{117BF495-3E9E-462D-90BC-6AA772D2DA63}" name="表格1" displayName="表格1" ref="A1:C31" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A1:C31" xr:uid="{03150B6E-5CEB-46EC-9653-3B038DD3366B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{270AD1EE-9240-4505-A05C-448242051B3A}" name="原文" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{B49B5F7B-26AD-4D4F-9ABC-239D6B7BA2E3}" name="中文" dataDxfId="2"/>
@@ -848,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB118205-DAC6-4511-A9A6-EB926D361A79}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1182,44 +1150,6 @@
         <v>68</v>
       </c>
       <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
